--- a/ManualTestingReport.xlsx
+++ b/ManualTestingReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\sem6\TDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iancu\Desktop\TravelTracker-TDTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C401AF6-F09B-4DA3-A07F-C5962CB802C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5BACF0-FA43-4F2C-BDFD-93AC11333733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="924" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tapoi Marius-Stefan" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="53">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -206,12 +206,38 @@
   <si>
     <t>Data</t>
   </si>
+  <si>
+    <t>User Voting</t>
+  </si>
+  <si>
+    <t>Java in IntelliJ IDE</t>
+  </si>
+  <si>
+    <t>1. Setup the Testing Environment
+2. Initialize Mocks and Inject Dependencies
+3. Define Test Data
+4. Mock Repository Behavior
+5. Execute the Test Method
+6. Verify the Expected Outcome</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: 1 Existing vote: no</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: 1 Existing vote: yes</t>
+  </si>
+  <si>
+    <t>user id: null vote id: 1</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: null</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +305,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Inter"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -495,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -540,6 +571,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,12 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,24 +892,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75">
+    <row r="2" spans="2:10" ht="15.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75">
+    <row r="3" spans="2:10" ht="15.6">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -891,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75">
+    <row r="4" spans="2:10" ht="15.6">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -899,13 +933,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75">
+    <row r="5" spans="2:10" ht="15.6">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75">
+    <row r="7" spans="2:10" ht="15.6">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -935,10 +969,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -963,9 +997,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+    <row r="9" spans="2:10" ht="15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
@@ -988,9 +1022,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+    <row r="10" spans="2:10" ht="15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1014,8 +1048,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1038,9 +1072,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+    <row r="12" spans="2:10" ht="15.6">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1063,9 +1097,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+    <row r="13" spans="2:10" ht="15.6">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1089,8 +1123,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="120" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1113,43 +1147,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="17" spans="2:7" ht="15.75" thickTop="1">
-      <c r="C17" s="18" t="s">
+    <row r="16" spans="2:10" ht="15" thickBot="1"/>
+    <row r="17" spans="2:7" ht="15" thickTop="1">
+      <c r="C17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
@@ -1197,24 +1231,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FAC4A2-5E3A-4090-9EE7-1BBAF6C47462}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75">
+    <row r="2" spans="2:10" ht="15.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75">
+    <row r="3" spans="2:10" ht="15.6">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75">
+    <row r="4" spans="2:10" ht="15.6">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1238,13 +1272,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75">
+    <row r="5" spans="2:10" ht="15.6">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75">
+    <row r="7" spans="2:10" ht="15.6">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1274,10 +1308,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1294,9 +1328,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+    <row r="9" spans="2:10" ht="15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1313,9 +1347,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+    <row r="10" spans="2:10" ht="15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1333,8 +1367,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1351,9 +1385,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+    <row r="12" spans="2:10" ht="15.6">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1376,9 +1410,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+    <row r="13" spans="2:10" ht="15.6">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1402,8 +1436,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1420,43 +1454,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="17" spans="2:7" ht="15.75" thickTop="1">
-      <c r="C17" s="18" t="s">
+    <row r="16" spans="2:10" ht="15" thickBot="1"/>
+    <row r="17" spans="2:7" ht="15" thickTop="1">
+      <c r="C17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
@@ -1506,20 +1540,20 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75">
+    <row r="2" spans="2:10" ht="15.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75">
+    <row r="3" spans="2:10" ht="15.6">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1535,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75">
+    <row r="4" spans="2:10" ht="15.6">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1543,13 +1577,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75">
+    <row r="5" spans="2:10" ht="15.6">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75">
+    <row r="7" spans="2:10" ht="15.6">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1579,10 +1613,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1599,9 +1633,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+    <row r="9" spans="2:10" ht="15">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1618,9 +1652,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+    <row r="10" spans="2:10" ht="15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1638,8 +1672,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1656,9 +1690,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+    <row r="12" spans="2:10" ht="15.6">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1681,9 +1715,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+    <row r="13" spans="2:10" ht="15.6">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1707,8 +1741,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1725,43 +1759,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="17" spans="2:7" ht="15.75" thickTop="1">
-      <c r="C17" s="18" t="s">
+    <row r="16" spans="2:10" ht="15" thickBot="1"/>
+    <row r="17" spans="2:7" ht="15" thickTop="1">
+      <c r="C17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
@@ -1807,24 +1841,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBE485E-212B-4633-897D-C9EA8A9BC536}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75">
+    <row r="2" spans="2:10" ht="15.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75">
+    <row r="3" spans="2:10" ht="15.6">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1840,26 +1874,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75">
+    <row r="4" spans="2:10" ht="15.6">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.6">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75">
+    <row r="7" spans="2:10" ht="15.6">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1884,10 +1918,12 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1895,18 +1931,24 @@
         <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+    <row r="9" spans="2:10" ht="30">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1914,18 +1956,24 @@
         <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
+    <row r="10" spans="2:10" ht="15">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1933,18 +1981,24 @@
         <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1952,140 +2006,112 @@
         <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="2:10" ht="15.6">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.6">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="17" spans="2:7" ht="15.75" thickTop="1">
-      <c r="C17" s="18" t="s">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="15" thickBot="1"/>
+    <row r="17" spans="2:7" ht="15" thickTop="1">
+      <c r="C17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" s="16">
         <f>(D20/C20)*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="G20" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2099,11 +2125,12 @@
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3" xr:uid="{EAFBD872-B8A6-41EE-A15C-A619C799F364}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ManualTestingReport.xlsx
+++ b/ManualTestingReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iancu\Desktop\TravelTracker-TDTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5BACF0-FA43-4F2C-BDFD-93AC11333733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC08B9-04BF-438B-900C-917D3AC46971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="924" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="456" windowWidth="17280" windowHeight="10680" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tapoi Marius-Stefan" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="70">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -207,7 +207,75 @@
     <t>Data</t>
   </si>
   <si>
-    <t>User Voting</t>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Session Management</t>
+  </si>
+  <si>
+    <t>1. Open travel tracker
+2. Login with valid credentials
+3. Logout
+4. Go back to the previous page
+5. Reload</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Not logged in before</t>
+  </si>
+  <si>
+    <t>Gabarsolon</t>
+  </si>
+  <si>
+    <t>Parola1234$</t>
+  </si>
+  <si>
+    <t>Page should not load anymore</t>
+  </si>
+  <si>
+    <t>Blank white page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user seems to be removed from the  current browser session </t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>It works as expected for the admin account too</t>
+  </si>
+  <si>
+    <t>1. Open travel tracker
+2. Login with valid credentials
+3. Logout
+4. Enter "/map" at the end of the url
+5. Press enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page should not load </t>
+  </si>
+  <si>
+    <t>Page loads, username still being present</t>
+  </si>
+  <si>
+    <t>The user name is not removed from session after logout</t>
+  </si>
+  <si>
+    <t>Verify the access to pages after being logged out, in order to see how the session is managed inside the frontend app.</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: 1 Existing vote: no</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: 1 Existing vote: yes</t>
+  </si>
+  <si>
+    <t>user id: null vote id: 1</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: null</t>
   </si>
   <si>
     <t>Java in IntelliJ IDE</t>
@@ -221,23 +289,14 @@
 6. Verify the Expected Outcome</t>
   </si>
   <si>
-    <t>user id: 1 vote id: 1 Existing vote: no</t>
-  </si>
-  <si>
-    <t>user id: 1 vote id: 1 Existing vote: yes</t>
-  </si>
-  <si>
-    <t>user id: null vote id: 1</t>
-  </si>
-  <si>
-    <t>user id: 1 vote id: null</t>
+    <t xml:space="preserve">                         User Voting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,12 +365,75 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inter"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inter"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Inter"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Inter"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Inter"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Inter"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Inter"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,8 +452,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -522,11 +650,288 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -571,9 +976,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,8 +1052,147 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -892,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -969,10 +1550,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -998,8 +1579,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1023,8 +1604,8 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1048,8 +1629,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1073,8 +1654,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.6">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1098,8 +1679,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.6">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1123,8 +1704,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="120" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1149,41 +1730,41 @@
     </row>
     <row r="16" spans="2:10" ht="15" thickBot="1"/>
     <row r="17" spans="2:7" ht="15" thickTop="1">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
@@ -1229,10 +1810,480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FAC4A2-5E3A-4090-9EE7-1BBAF6C47462}">
+  <dimension ref="B2:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15.6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.6">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.6">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="45">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.6">
+      <c r="B7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="22.5" customHeight="1">
+      <c r="B8" s="32"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="2:12" ht="15">
+      <c r="B9" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" ht="51" customHeight="1">
+      <c r="B10" s="47"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B11" s="47"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1">
+      <c r="B12" s="47"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B13" s="47"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B14" s="47"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B15" s="47"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="2:12" ht="61.5" customHeight="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="47"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B18" s="47"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="2:11" ht="63" customHeight="1">
+      <c r="B19" s="47"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B20" s="47"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="85"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B21" s="47"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="85"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B22" s="48"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="86"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" thickBot="1"/>
+    <row r="27" spans="2:11" ht="15" thickTop="1">
+      <c r="C27" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15">
+        <v>4</v>
+      </c>
+      <c r="F30" s="16">
+        <f>(D30/C30)*100</f>
+        <v>50</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="B9:B22"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3" xr:uid="{3C0488C4-AA2E-429B-A3F0-376C2702323F}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" display="user1@gmail.com" xr:uid="{D96C62DE-FB4C-47D8-9FAA-027B0D14896D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F514DC1-8B62-4B0B-9994-F6E8DF0A0782}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1308,10 +2359,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1329,8 +2380,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1348,8 +2399,8 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1367,8 +2418,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1386,8 +2437,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.6">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1411,8 +2462,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.6">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1436,8 +2487,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1456,346 +2507,41 @@
     </row>
     <row r="16" spans="2:10" ht="15" thickBot="1"/>
     <row r="17" spans="2:7" ht="15" thickTop="1">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="14">
-        <v>7</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15">
-        <v>6</v>
-      </c>
-      <c r="F20" s="16">
-        <f>(D20/C20)*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="G20" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3" xr:uid="{3C0488C4-AA2E-429B-A3F0-376C2702323F}">
-      <formula1>"High,Medium,Low"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F514DC1-8B62-4B0B-9994-F6E8DF0A0782}">
-  <dimension ref="B2:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" ht="15.6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="15.6">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="15.6">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.6">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.6">
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.6">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.6">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1"/>
-    <row r="17" spans="2:7" ht="15" thickTop="1">
-      <c r="C17" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
@@ -1841,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBE485E-212B-4633-897D-C9EA8A9BC536}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1850,8 +2596,8 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="45.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
     <col min="9" max="9" width="23.44140625" customWidth="1"/>
@@ -1878,8 +2624,8 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
+      <c r="C4" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.6">
@@ -1888,12 +2634,13 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15.6">
+    <row r="6" spans="2:10" ht="15" thickBot="1"/>
+    <row r="7" spans="2:10" ht="16.2" thickBot="1">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>47</v>
+      <c r="C7" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1917,104 +2664,104 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="E8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="24" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="30">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="10" t="s">
+    <row r="9" spans="2:10" ht="30.6" thickBot="1">
+      <c r="B9" s="32"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="E9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="28" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="10" t="s">
+    <row r="10" spans="2:10" ht="30.6" thickBot="1">
+      <c r="B10" s="32"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="E10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="29" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="10" t="s">
+    <row r="11" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="32"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -2022,75 +2769,81 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.6">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="15.6">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="11"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="J13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B14" s="32"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="15" thickBot="1"/>
     <row r="17" spans="2:7" ht="15" thickTop="1">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13" t="s">
@@ -2110,7 +2863,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2125,12 +2878,11 @@
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3" xr:uid="{EAFBD872-B8A6-41EE-A15C-A619C799F364}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ManualTestingReport.xlsx
+++ b/ManualTestingReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turcu\Documents\GitHub\TravelTracker-TDTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA34CD-7D5A-4420-BF98-790E8EF99F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506490EB-8A27-4BAA-AF9C-D3035AF33E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tapoi Marius-Stefan" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="81">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -198,13 +198,7 @@
     <t>Req_b)</t>
   </si>
   <si>
-    <t>Feature X</t>
-  </si>
-  <si>
     <t>Used browser (eg. Google Chrome)</t>
-  </si>
-  <si>
-    <t>Data</t>
   </si>
   <si>
     <t>High</t>
@@ -265,12 +259,80 @@
   <si>
     <t>Verify the access to pages after being logged out, in order to see how the session is managed inside the frontend app.</t>
   </si>
+  <si>
+    <t xml:space="preserve">                         User Voting</t>
+  </si>
+  <si>
+    <t>Java in IntelliJ IDE</t>
+  </si>
+  <si>
+    <t>1. Setup the Testing Environment
+2. Initialize Mocks and Inject Dependencies
+3. Define Test Data
+4. Mock Repository Behavior
+5. Execute the Test Method
+6. Verify the Expected Outcome</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: 1 Existing vote: no</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: 1 Existing vote: yes</t>
+  </si>
+  <si>
+    <t>user id: null vote id: 1</t>
+  </si>
+  <si>
+    <t>user id: 1 vote id: null</t>
+  </si>
+  <si>
+    <t>Secured API</t>
+  </si>
+  <si>
+    <t>Check privacy and security rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Postman
+2. Enter api requiests in the text bar
+3. Enter parameters in the box bellow
+4. Check api response compared to the expected response                            </t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>Destination Data</t>
+  </si>
+  <si>
+    <t>Destination added successfully</t>
+  </si>
+  <si>
+    <t>Tip Data</t>
+  </si>
+  <si>
+    <t>Tip added successfully</t>
+  </si>
+  <si>
+    <t>Destination Data with different User ID</t>
+  </si>
+  <si>
+    <t>Error message: Unauthorized access</t>
+  </si>
+  <si>
+    <t>Tip Data with different User ID</t>
+  </si>
+  <si>
+    <t>User is not logged in</t>
+  </si>
+  <si>
+    <t>Error message: Login required</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,8 +457,24 @@
       <name val="Inter"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Inter"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +493,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -784,6 +868,103 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -791,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -836,6 +1017,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,19 +1065,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,124 +1182,97 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1296,24 +1558,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1329,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1337,13 +1599,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1372,11 +1634,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1401,9 +1663,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1426,9 +1688,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1451,9 +1713,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1476,9 +1738,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1501,9 +1763,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1526,9 +1788,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+    <row r="14" spans="2:10" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1551,45 +1813,45 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
@@ -1635,25 +1897,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FAC4A2-5E3A-4090-9EE7-1BBAF6C47462}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,356 +1923,356 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="63" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="C5" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="51" t="s">
+    <row r="8" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="G9" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="75"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="75"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="75"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="37" t="s">
+      <c r="F12" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="75"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="75"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="75"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="75"/>
+      <c r="C16" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="48" t="s">
+      <c r="H16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="75"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="75"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="75"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="48" t="s">
+      <c r="G19" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="50" t="s">
+      <c r="H19" s="45" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="42" t="s">
+      <c r="I19" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="55" t="s">
+      <c r="J19" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="50"/>
-    </row>
-    <row r="19" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="75"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="75"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="73"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="20" t="s">
+      <c r="K19" s="54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="75"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="55"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="75"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="55"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="76"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="56"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="39"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="73"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="74"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>42</v>
       </c>
@@ -2034,6 +2296,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="B9:B22"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="K16:K18"/>
     <mergeCell ref="D19:D22"/>
@@ -2050,42 +2348,6 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="B9:B22"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -2105,288 +2367,348 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F514DC1-8B62-4B0B-9994-F6E8DF0A0782}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="92" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="101" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="D7" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="94"/>
+    </row>
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="90"/>
+      <c r="C17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="103">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="14">
-        <v>7</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15">
-        <v>6</v>
-      </c>
-      <c r="F20" s="16">
-        <f>(D20/C20)*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="G20" s="17"/>
+      <c r="D20" s="104">
+        <v>2</v>
+      </c>
+      <c r="E20" s="104">
+        <v>4</v>
+      </c>
+      <c r="F20" s="105">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G20" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="C17:G17"/>
@@ -2394,8 +2716,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3" xr:uid="{13B52468-4D44-42CF-A869-3A392A403746}">
@@ -2411,23 +2731,23 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2443,26 +2763,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
+      <c r="C7" s="78" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -2486,146 +2807,142 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
+      <c r="E8" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>33</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="10" t="s">
+    <row r="9" spans="2:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="22"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="87" t="s">
+        <v>33</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="10" t="s">
+    <row r="10" spans="2:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="88" t="s">
+        <v>32</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="10" t="s">
+    <row r="11" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="22"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="88" t="s">
+        <v>32</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
-      </c>
+    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>33</v>
-      </c>
+    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>45</v>
-      </c>
+    <row r="14" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="22"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
@@ -2633,62 +2950,64 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" s="16">
         <f>(D20/C20)*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="G20" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2703,7 +3022,7 @@
     <mergeCell ref="G18:G19"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3" xr:uid="{EAFBD872-B8A6-41EE-A15C-A619C799F364}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3" xr:uid="{8EFBA682-A910-4A99-804B-3266ADF7551E}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ManualTestingReport.xlsx
+++ b/ManualTestingReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turcu\Documents\GitHub\TravelTracker-TDTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506490EB-8A27-4BAA-AF9C-D3035AF33E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A78A0C2-9BE9-4EEE-B562-083FF5BF0E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="84">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>Error message: Login required</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Verify that an user can't vote twice</t>
+  </si>
+  <si>
+    <t>Verify that users can't create accounts with weak passwords</t>
   </si>
 </sst>
 </file>
@@ -972,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1029,6 +1038,37 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,10 +1105,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1134,145 +1234,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1559,7 +1530,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,11 +1570,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="91" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
@@ -1635,10 +1608,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1664,8 +1637,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1689,8 +1662,8 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1714,8 +1687,8 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1739,8 +1712,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
@@ -1764,8 +1737,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1789,8 +1762,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1815,41 +1788,41 @@
     </row>
     <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
@@ -1897,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FAC4A2-5E3A-4090-9EE7-1BBAF6C47462}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:C22"/>
     </sheetView>
   </sheetViews>
@@ -1948,329 +1921,329 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="59" t="s">
         <v>53</v>
       </c>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="35"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="75"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="35"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="57" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="59" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="75"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="35"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="75"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="35"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="75"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="35"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="75"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="59" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="75"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="75"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="75"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="85" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="55"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="86"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="75"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="55"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="86"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="76"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="56"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="87"/>
     </row>
     <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="74"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
@@ -2296,43 +2269,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="B9:B22"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J16:J18"/>
     <mergeCell ref="K16:K18"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
@@ -2348,6 +2284,43 @@
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="B9:B22"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -2368,7 +2341,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,325 +2358,290 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
     </row>
     <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="99" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="107" t="s">
+      <c r="H9" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="107" t="s">
+      <c r="I9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="99" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="96" t="s">
+      <c r="I10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="94" t="s">
+      <c r="J10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="99" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="107" t="s">
+      <c r="H11" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="96" t="s">
+      <c r="I11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="100" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="96" t="s">
+      <c r="I12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="100" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="107" t="s">
+      <c r="H13" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="96" t="s">
+      <c r="I13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="94"/>
-    </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-    </row>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="90"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="103">
+      <c r="C20" s="14">
         <v>6</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="15">
         <v>4</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="16">
         <v>33.333333333333329</v>
       </c>
-      <c r="G20" s="106"/>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2731,7 +2669,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2767,7 +2705,7 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2775,14 +2713,16 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="23" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2808,28 +2748,28 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="81" t="s">
+      <c r="E8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -2837,24 +2777,24 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="22"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="85" t="s">
+      <c r="E9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="I9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -2862,24 +2802,24 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="85" t="s">
+      <c r="E10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="88" t="s">
+      <c r="I10" s="31" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -2887,24 +2827,24 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="22"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="85" t="s">
+      <c r="E11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="87" t="s">
+      <c r="H11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -2912,8 +2852,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
@@ -2925,8 +2865,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="11"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
@@ -2938,8 +2878,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="22"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
@@ -2952,41 +2892,41 @@
     </row>
     <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
